--- a/biology/Médecine/Syndrome_de_Mirizzi/Syndrome_de_Mirizzi.xlsx
+++ b/biology/Médecine/Syndrome_de_Mirizzi/Syndrome_de_Mirizzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Mirizzi est une complication rare de la lithiase biliaire chronique, défini par une impaction dans le collet ou le canal cystique et une inflammation réactionnelle qui vont comprimer la voie biliaire principale.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
